--- a/carmen/pmth_project/pmth_main.xlsx
+++ b/carmen/pmth_project/pmth_main.xlsx
@@ -1,85 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huynh\temp_local\carmen_feb_sce\carmen_pmth_env\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838EC825-8A4D-4C84-B5D3-921EB9AB4F17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14835" yWindow="-18120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17340" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tabelle1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>file_name</t>
-  </si>
-  <si>
-    <t>suite2p_path</t>
-  </si>
-  <si>
-    <t>sce_threshold_method</t>
-  </si>
-  <si>
-    <t>sce_threshold_value</t>
-  </si>
-  <si>
-    <t>sce_count</t>
-  </si>
-  <si>
-    <t>sce_per_min</t>
-  </si>
-  <si>
-    <t>spikes_count</t>
-  </si>
-  <si>
-    <t>spikes_per_min</t>
-  </si>
-  <si>
-    <t>spikes_per_min_per_cell</t>
-  </si>
-  <si>
-    <t>movement_count</t>
-  </si>
-  <si>
-    <t>movement_per_min</t>
-  </si>
-  <si>
-    <t>240109_240117</t>
-  </si>
-  <si>
-    <t>manual minimum (instead of surrogate method)</t>
-  </si>
-  <si>
-    <t>C:\Users\huynh\temp_local\carmen_feb_sce\carmen_pmth_env\suite2p</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -103,23 +51,84 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -385,97 +394,996 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="43.5546875" customWidth="1"/>
-    <col min="3" max="3" width="2.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col width="34.140625" customWidth="1" style="3" min="1" max="1"/>
+    <col width="128.42578125" customWidth="1" style="3" min="2" max="2"/>
+    <col width="2.28515625" customWidth="1" style="1" min="3" max="3"/>
+    <col width="21.28515625" bestFit="1" customWidth="1" style="3" min="4" max="4"/>
+    <col width="19" bestFit="1" customWidth="1" style="3" min="5" max="5"/>
+    <col width="9.5703125" bestFit="1" customWidth="1" style="3" min="6" max="6"/>
+    <col width="11.85546875" bestFit="1" customWidth="1" style="3" min="7" max="7"/>
+    <col width="12.28515625" bestFit="1" customWidth="1" style="3" min="8" max="8"/>
+    <col width="14.7109375" bestFit="1" customWidth="1" style="3" min="9" max="9"/>
+    <col width="22.85546875" bestFit="1" customWidth="1" style="3" min="10" max="10"/>
+    <col width="16.28515625" bestFit="1" customWidth="1" style="3" min="11" max="11"/>
+    <col width="18.85546875" bestFit="1" customWidth="1" style="3" min="12" max="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>file_name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>suite2p_path</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>sce_threshold_method</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>sce_surr_threshold_value</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>sce_threshold_used</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>sce_count</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>sce_per_min</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>spikes_count</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>spikes_per_min</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>spikes_per_min_per_cell</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>movement_count</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>movement_per_min</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>sig_pos_count</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>insig_count</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>sig_neg_count</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>sig_pos_percent</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>insig_percent</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>sig_neg_percent</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" s="3">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>240515_240527_Deep</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>C:\Users\sanmartin\Desktop\pmth_project\Data_for_Average_Traces\240515_240527\suite2p_240515_240527_Plane0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>manual minimum (instead of surrogate method)</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F2" t="n">
+        <v>10</v>
+      </c>
+      <c r="G2" t="n">
+        <v>874</v>
+      </c>
+      <c r="H2" t="n">
+        <v>43.81224919478374</v>
+      </c>
+      <c r="I2" t="n">
+        <v>37021</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1855.804665263259</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4.820271857826648</v>
+      </c>
+      <c r="L2" t="n">
+        <v>52</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2.606678441794914</v>
+      </c>
+      <c r="N2" t="n">
+        <v>83</v>
+      </c>
+      <c r="O2" t="n">
+        <v>157</v>
+      </c>
+      <c r="P2" t="n">
+        <v>145</v>
+      </c>
+      <c r="Q2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="R2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="3" s="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>240515_240527_Superficial</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>C:\Users\sanmartin\Desktop\pmth_project\Data_for_Average_Traces\240515_240527\suite2p_240515_240527_Plane1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>manual minimum (instead of surrogate method)</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G3" t="n">
+        <v>560</v>
+      </c>
+      <c r="H3" t="n">
+        <v>28.0719216808683</v>
+      </c>
+      <c r="I3" t="n">
+        <v>32318</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1620.050651575539</v>
+      </c>
+      <c r="K3" t="n">
+        <v>5.175880675960188</v>
+      </c>
+      <c r="L3" t="n">
+        <v>52</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2.606678441794914</v>
+      </c>
+      <c r="N3" t="n">
+        <v>55</v>
+      </c>
+      <c r="O3" t="n">
+        <v>143</v>
+      </c>
+      <c r="P3" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" s="3">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>240424_240506_Deep</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>C:\Users\sanmartin\Desktop\pmth_project\Data_for_Average_Traces\240424_240506\suite2p_240424_240506_Plane0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>manual minimum (instead of surrogate method)</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2">
-        <v>10</v>
-      </c>
-      <c r="F2">
+      <c r="F4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G4" t="n">
+        <v>41</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.055265694492143</v>
+      </c>
+      <c r="I4" t="n">
+        <v>12619</v>
+      </c>
+      <c r="J4" t="n">
+        <v>632.5706780194233</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.573845638527815</v>
+      </c>
+      <c r="L4" t="n">
+        <v>72</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3.609247073254496</v>
+      </c>
+      <c r="N4" t="n">
+        <v>45</v>
+      </c>
+      <c r="O4" t="n">
+        <v>49</v>
+      </c>
+      <c r="P4" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" s="3">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>240424_240506_Superficial</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>C:\Users\sanmartin\Desktop\pmth_project\Data_for_Average_Traces\240424_240506\suite2p_240424_240506_Plane1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>manual minimum (instead of surrogate method)</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>10</v>
+      </c>
+      <c r="F5" t="n">
+        <v>40</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2.005137262919164</v>
+      </c>
+      <c r="H5" t="n">
+        <v>10366</v>
+      </c>
+      <c r="I5" t="n">
+        <v>519.6313216855013</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.28880583345254</v>
+      </c>
+      <c r="K5" t="n">
+        <v>72</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3.609247073254496</v>
+      </c>
+    </row>
+    <row r="6" s="3">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>240416_240426_Deep</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>C:\Users\sanmartin\Desktop\pmth_project\Data_for_Average_Traces\240416_240426\suite2p_240416_240426_Plane0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>manual minimum (instead of surrogate method)</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>10</v>
+      </c>
+      <c r="F6" t="n">
+        <v>23</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.152953926178519</v>
+      </c>
+      <c r="H6" t="n">
+        <v>9833</v>
+      </c>
+      <c r="I6" t="n">
+        <v>492.9128676571036</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.100080928661029</v>
+      </c>
+      <c r="K6" t="n">
+        <v>80</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4.010274525838328</v>
+      </c>
+    </row>
+    <row r="7" s="3">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>240416_240426_Superficial</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>C:\Users\sanmartin\Desktop\pmth_project\Data_for_Average_Traces\240416_240426\suite2p_240416_240426_Plane1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>manual minimum (instead of surrogate method)</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" t="n">
+        <v>36</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.804623536627248</v>
+      </c>
+      <c r="H7" t="n">
+        <v>11169</v>
+      </c>
+      <c r="I7" t="n">
+        <v>559.8844522386037</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.255142164177928</v>
+      </c>
+      <c r="K7" t="n">
+        <v>80</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4.010274525838328</v>
+      </c>
+    </row>
+    <row r="8" s="3">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>240304_240314_Deep</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>C:\Users\sanmartin\Desktop\pmth_project\Data_for_Average_Traces\240304_240314\suite2p_240304_240314_Plane0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>manual minimum (instead of surrogate method)</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" t="n">
+        <v>347</v>
+      </c>
+      <c r="G8" t="n">
+        <v>17.39456575582375</v>
+      </c>
+      <c r="H8" t="n">
+        <v>25330</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1269.753171743561</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4.232510572478535</v>
+      </c>
+      <c r="K8" t="n">
+        <v>68</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3.408733346962579</v>
+      </c>
+    </row>
+    <row r="9" s="3">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>240304_240314_Superficial</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>C:\Users\sanmartin\Desktop\pmth_project\Data_for_Average_Traces\240304_240314\suite2p_240304_240314_Plane1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>manual minimum (instead of surrogate method)</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="n">
+        <v>284</v>
+      </c>
+      <c r="G9" t="n">
+        <v>14.23647456672607</v>
+      </c>
+      <c r="H9" t="n">
+        <v>22437</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1124.731619202932</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.865057110662998</v>
+      </c>
+      <c r="K9" t="n">
+        <v>68</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3.408733346962579</v>
+      </c>
+    </row>
+    <row r="10" s="3">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>240304_240313_Deep</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>C:\Users\sanmartin\Desktop\pmth_project\Data_for_Average_Traces\240304_240313\suite2p_240304_240313_Plane0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>manual minimum (instead of surrogate method)</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" t="n">
+        <v>278</v>
+      </c>
+      <c r="G10" t="n">
+        <v>13.93570397728819</v>
+      </c>
+      <c r="H10" t="n">
+        <v>21469</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1076.207297440288</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4.270663878731303</v>
+      </c>
+      <c r="K10" t="n">
+        <v>59</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.957577462805767</v>
+      </c>
+    </row>
+    <row r="11" s="3">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>240304_240313_Superficial</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>C:\Users\sanmartin\Desktop\pmth_project\Data_for_Average_Traces\240304_240313\suite2p_240304_240313_Plane1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>manual minimum (instead of surrogate method)</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" t="n">
+        <v>520</v>
+      </c>
+      <c r="G11" t="n">
+        <v>26.06678441794913</v>
+      </c>
+      <c r="H11" t="n">
+        <v>27972</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1402.192487959371</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4.249068145331429</v>
+      </c>
+      <c r="K11" t="n">
+        <v>59</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2.957577462805767</v>
+      </c>
+    </row>
+    <row r="12" s="3">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>240124_240202_Deep</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>C:\Users\sanmartin\Desktop\pmth_project\Data_for_Average_Traces\240124_240202\suite2p_240124_240202_Plane0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>manual minimum (instead of surrogate method)</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" t="n">
+        <v>152</v>
+      </c>
+      <c r="G12" t="n">
+        <v>7.619521599092824</v>
+      </c>
+      <c r="H12" t="n">
+        <v>15268</v>
+      </c>
+      <c r="I12" t="n">
+        <v>765.3608932562449</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.576972704566481</v>
+      </c>
+      <c r="K12" t="n">
+        <v>61</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3.057834325951725</v>
+      </c>
+    </row>
+    <row r="13" s="3">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>240124_240202_Superficial</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>C:\Users\sanmartin\Desktop\pmth_project\Data_for_Average_Traces\240124_240202\suite2p_240124_240202_Plane1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>manual minimum (instead of surrogate method)</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" t="n">
+        <v>114</v>
+      </c>
+      <c r="G13" t="n">
+        <v>5.714641199319618</v>
+      </c>
+      <c r="H13" t="n">
+        <v>13035</v>
+      </c>
+      <c r="I13" t="n">
+        <v>653.4241055537826</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.603283289058895</v>
+      </c>
+      <c r="K13" t="n">
+        <v>61</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3.057834325951725</v>
+      </c>
+    </row>
+    <row r="14" s="3">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>240109_240118_Deep</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>C:\Users\sanmartin\Desktop\pmth_project\Data_for_Average_Traces\240109_240118\suite2p_240109_240118_Plane0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>manual minimum (instead of surrogate method)</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" t="n">
+        <v>654</v>
+      </c>
+      <c r="G14" t="n">
+        <v>32.78399424872833</v>
+      </c>
+      <c r="H14" t="n">
+        <v>29905</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1499.09074618994</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2.441515873273518</v>
+      </c>
+      <c r="K14" t="n">
+        <v>113</v>
+      </c>
+      <c r="L14" t="n">
+        <v>5.664512767746639</v>
+      </c>
+    </row>
+    <row r="15" s="3">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>240109_240118_Superficial</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>C:\Users\sanmartin\Desktop\pmth_project\Data_for_Average_Traces\240109_240118\suite2p_240109_240118_Plane1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>manual minimum (instead of surrogate method)</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>10</v>
+      </c>
+      <c r="F15" t="n">
+        <v>626</v>
+      </c>
+      <c r="G15" t="n">
+        <v>31.38039816468492</v>
+      </c>
+      <c r="H15" t="n">
+        <v>29689</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1488.263004970177</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.351126390158257</v>
+      </c>
+      <c r="K15" t="n">
+        <v>113</v>
+      </c>
+      <c r="L15" t="n">
+        <v>5.664512767746639</v>
+      </c>
+    </row>
+    <row r="16" s="3">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>240124_240201_Deep</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>C:\Users\sanmartin\Desktop\pmth_project\Data_for_Average_Traces\240124_240201\suite2p_240124_240201_Plane0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>manual minimum (instead of surrogate method)</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" t="n">
+        <v>191</v>
+      </c>
+      <c r="G16" t="n">
+        <v>9.574530430439008</v>
+      </c>
+      <c r="H16" t="n">
+        <v>18189</v>
+      </c>
+      <c r="I16" t="n">
+        <v>911.786041880917</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2.979692947323258</v>
+      </c>
+      <c r="K16" t="n">
+        <v>108</v>
+      </c>
+      <c r="L16" t="n">
+        <v>5.413870609881744</v>
+      </c>
+    </row>
+    <row r="17" s="3">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>240124_240201_Superficial</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>C:\Users\sanmartin\Desktop\pmth_project\Data_for_Average_Traces\240124_240201\suite2p_240124_240201_Plane1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>manual minimum (instead of surrogate method)</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" t="n">
+        <v>186</v>
+      </c>
+      <c r="G17" t="n">
+        <v>9.323888272574113</v>
+      </c>
+      <c r="H17" t="n">
+        <v>17556</v>
+      </c>
+      <c r="I17" t="n">
+        <v>880.0547446952212</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.21187863027453</v>
+      </c>
+      <c r="K17" t="n">
+        <v>108</v>
+      </c>
+      <c r="L17" t="n">
+        <v>5.413870609881744</v>
+      </c>
+    </row>
+    <row r="18" s="3">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>240109_240117_Deep</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>C:\Users\sanmartin\Desktop\pmth_project\Data_for_Average_Traces\240109_240117\suite2p_240109_240117_Plane0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>manual minimum (instead of surrogate method)</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F18" t="n">
         <v>588</v>
       </c>
-      <c r="G2">
-        <v>29.475517764911711</v>
-      </c>
-      <c r="H2">
+      <c r="G18" t="n">
+        <v>29.47551776491171</v>
+      </c>
+      <c r="H18" t="n">
         <v>30230</v>
       </c>
-      <c r="I2">
+      <c r="I18" t="n">
         <v>1515.382486451158</v>
       </c>
-      <c r="J2">
-        <v>3.0247155418186789</v>
-      </c>
-      <c r="K2">
+      <c r="J18" t="n">
+        <v>3.024715541818679</v>
+      </c>
+      <c r="K18" t="n">
         <v>120</v>
       </c>
-      <c r="L2">
-        <v>6.0154117887574916</v>
+      <c r="L18" t="n">
+        <v>6.015411788757492</v>
+      </c>
+    </row>
+    <row r="19" s="3">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>240109_240117_Superficial</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>C:\Users\sanmartin\Desktop\pmth_project\Data_for_Average_Traces\240109_240117\suite2p_240109_240117_Plane1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>manual minimum (instead of surrogate method)</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>10</v>
+      </c>
+      <c r="F19" t="n">
+        <v>474</v>
+      </c>
+      <c r="G19" t="n">
+        <v>23.7608765655921</v>
+      </c>
+      <c r="H19" t="n">
+        <v>26461</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1326.4484278526</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.001014542652942</v>
+      </c>
+      <c r="K19" t="n">
+        <v>120</v>
+      </c>
+      <c r="L19" t="n">
+        <v>6.015411788757492</v>
+      </c>
+    </row>
+    <row r="20" s="3">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>231011_231019_Deep</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>C:\Users\sanmartin\Desktop\pmth_project\Data_for_Average_Traces\231011_231019\suite2p_231011_231019_Plane0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>manual minimum (instead of surrogate method)</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>10</v>
+      </c>
+      <c r="F20" t="n">
+        <v>215</v>
+      </c>
+      <c r="G20" t="n">
+        <v>21.55522557638102</v>
+      </c>
+      <c r="H20" t="n">
+        <v>12699</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1273.161905090523</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.067860012266321</v>
+      </c>
+      <c r="K20" t="n">
+        <v>15</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.503852947189373</v>
+      </c>
+    </row>
+    <row r="21" s="3">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>231011_231019_Superficial</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>C:\Users\sanmartin\Desktop\pmth_project\Data_for_Average_Traces\231011_231019\suite2p_231011_231019_Plane1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>manual minimum (instead of surrogate method)</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>10</v>
+      </c>
+      <c r="F21" t="n">
+        <v>181</v>
+      </c>
+      <c r="G21" t="n">
+        <v>18.14649222941843</v>
+      </c>
+      <c r="H21" t="n">
+        <v>11358</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1138.717451611793</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3.207654793272658</v>
+      </c>
+      <c r="K21" t="n">
+        <v>15</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.503852947189373</v>
       </c>
     </row>
   </sheetData>

--- a/carmen/pmth_project/pmth_main.xlsx
+++ b/carmen/pmth_project/pmth_main.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huynh\python_tutorial\work_git\carmen\pmth_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9555267A-1FCB-4020-A82A-AAB3CDA1A890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646F166C-98C2-4B1A-B0B0-070ECEEE9ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14835" yWindow="-18120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -532,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="V16" sqref="V16"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/carmen/pmth_project/pmth_main.xlsx
+++ b/carmen/pmth_project/pmth_main.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huynh\python_tutorial\work_git\carmen\pmth_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanmartin\Desktop\pmth_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32B06BA7-B2F5-4AD9-A8B2-EDF25C597F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25428" yWindow="1608" windowWidth="17280" windowHeight="10056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14840" yWindow="-18120" windowWidth="29040" windowHeight="17640"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>file_name</t>
   </si>
@@ -28,13 +27,7 @@
     <t>suite2p_path</t>
   </si>
   <si>
-    <t>sce_percent_threshold</t>
-  </si>
-  <si>
-    <t>sce_surr_threshold</t>
-  </si>
-  <si>
-    <t>sce_threshold_used</t>
+    <t>sce_n_cells_threshold</t>
   </si>
   <si>
     <t>sce_count</t>
@@ -67,16 +60,130 @@
     <t>sig_neg_count</t>
   </si>
   <si>
-    <t>n_sce_percent</t>
-  </si>
-  <si>
-    <t>n_sce_manual</t>
+    <t>240515_240527_Deep</t>
+  </si>
+  <si>
+    <t>C:\Users\sanmartin\Desktop\pmth_project\Data_for_Average_Traces\240515_240527\suite2p_240515_240527_Plane0</t>
+  </si>
+  <si>
+    <t>240515_240527_Superficial</t>
+  </si>
+  <si>
+    <t>C:\Users\sanmartin\Desktop\pmth_project\Data_for_Average_Traces\240515_240527\suite2p_240515_240527_Plane1</t>
+  </si>
+  <si>
+    <t>240424_240506_Deep</t>
+  </si>
+  <si>
+    <t>C:\Users\sanmartin\Desktop\pmth_project\Data_for_Average_Traces\240424_240506\suite2p_240424_240506_Plane0</t>
+  </si>
+  <si>
+    <t>240424_240506_Superficial</t>
+  </si>
+  <si>
+    <t>C:\Users\sanmartin\Desktop\pmth_project\Data_for_Average_Traces\240424_240506\suite2p_240424_240506_Plane1</t>
+  </si>
+  <si>
+    <t>240416_240426_Deep</t>
+  </si>
+  <si>
+    <t>C:\Users\sanmartin\Desktop\pmth_project\Data_for_Average_Traces\240416_240426\suite2p_240416_240426_Plane0</t>
+  </si>
+  <si>
+    <t>240416_240426_Superficial</t>
+  </si>
+  <si>
+    <t>C:\Users\sanmartin\Desktop\pmth_project\Data_for_Average_Traces\240416_240426\suite2p_240416_240426_Plane1</t>
+  </si>
+  <si>
+    <t>240304_240314_Deep</t>
+  </si>
+  <si>
+    <t>C:\Users\sanmartin\Desktop\pmth_project\Data_for_Average_Traces\240304_240314\suite2p_240304_240314_Plane0</t>
+  </si>
+  <si>
+    <t>240304_240314_Superficial</t>
+  </si>
+  <si>
+    <t>C:\Users\sanmartin\Desktop\pmth_project\Data_for_Average_Traces\240304_240314\suite2p_240304_240314_Plane1</t>
+  </si>
+  <si>
+    <t>240304_240313_Deep</t>
+  </si>
+  <si>
+    <t>C:\Users\sanmartin\Desktop\pmth_project\Data_for_Average_Traces\240304_240313\suite2p_240304_240313_Plane0</t>
+  </si>
+  <si>
+    <t>240304_240313_Superficial</t>
+  </si>
+  <si>
+    <t>C:\Users\sanmartin\Desktop\pmth_project\Data_for_Average_Traces\240304_240313\suite2p_240304_240313_Plane1</t>
+  </si>
+  <si>
+    <t>240124_240202_Deep</t>
+  </si>
+  <si>
+    <t>C:\Users\sanmartin\Desktop\pmth_project\Data_for_Average_Traces\240124_240202\suite2p_240124_240202_Plane0</t>
+  </si>
+  <si>
+    <t>240124_240202_Superficial</t>
+  </si>
+  <si>
+    <t>C:\Users\sanmartin\Desktop\pmth_project\Data_for_Average_Traces\240124_240202\suite2p_240124_240202_Plane1</t>
+  </si>
+  <si>
+    <t>240109_240118_Deep</t>
+  </si>
+  <si>
+    <t>C:\Users\sanmartin\Desktop\pmth_project\Data_for_Average_Traces\240109_240118\suite2p_240109_240118_Plane0</t>
+  </si>
+  <si>
+    <t>240109_240118_Superficial</t>
+  </si>
+  <si>
+    <t>C:\Users\sanmartin\Desktop\pmth_project\Data_for_Average_Traces\240109_240118\suite2p_240109_240118_Plane1</t>
+  </si>
+  <si>
+    <t>240124_240201_Deep</t>
+  </si>
+  <si>
+    <t>C:\Users\sanmartin\Desktop\pmth_project\Data_for_Average_Traces\240124_240201\suite2p_240124_240201_Plane0</t>
+  </si>
+  <si>
+    <t>240124_240201_Superficial</t>
+  </si>
+  <si>
+    <t>C:\Users\sanmartin\Desktop\pmth_project\Data_for_Average_Traces\240124_240201\suite2p_240124_240201_Plane1</t>
+  </si>
+  <si>
+    <t>240109_240117_Deep</t>
+  </si>
+  <si>
+    <t>C:\Users\sanmartin\Desktop\pmth_project\Data_for_Average_Traces\240109_240117\suite2p_240109_240117_Plane0</t>
+  </si>
+  <si>
+    <t>240109_240117_Superficial</t>
+  </si>
+  <si>
+    <t>C:\Users\sanmartin\Desktop\pmth_project\Data_for_Average_Traces\240109_240117\suite2p_240109_240117_Plane1</t>
+  </si>
+  <si>
+    <t>231011_231019_Deep</t>
+  </si>
+  <si>
+    <t>C:\Users\sanmartin\Desktop\pmth_project\Data_for_Average_Traces\231011_231019\suite2p_231011_231019_Plane0</t>
+  </si>
+  <si>
+    <t>231011_231019_Superficial</t>
+  </si>
+  <si>
+    <t>C:\Users\sanmartin\Desktop\pmth_project\Data_for_Average_Traces\231011_231019\suite2p_231011_231019_Plane1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -394,30 +501,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="43.5546875" customWidth="1"/>
-    <col min="3" max="3" width="2.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.08984375" customWidth="1"/>
+    <col min="2" max="2" width="128.453125" customWidth="1"/>
+    <col min="3" max="3" width="2.36328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -457,67 +562,829 @@
       <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="D2">
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>726</v>
+      </c>
+      <c r="F2">
+        <v>0.6065540220330472</v>
+      </c>
+      <c r="G2">
+        <v>60262</v>
+      </c>
+      <c r="H2">
+        <v>50.347325724181118</v>
+      </c>
+      <c r="I2">
+        <v>0.13077227460826271</v>
+      </c>
+      <c r="J2">
+        <v>52</v>
+      </c>
+      <c r="K2">
+        <v>2.606678441794914</v>
+      </c>
+      <c r="L2">
+        <v>87</v>
+      </c>
+      <c r="M2">
+        <v>158</v>
+      </c>
+      <c r="N2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="B3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>725</v>
+      </c>
+      <c r="F3">
+        <v>0.60571854817349757</v>
+      </c>
+      <c r="G3">
+        <v>52984</v>
+      </c>
+      <c r="H3">
+        <v>44.266746974378748</v>
+      </c>
+      <c r="I3">
+        <v>0.14142730662740821</v>
+      </c>
+      <c r="J3">
+        <v>52</v>
+      </c>
+      <c r="K3">
+        <v>2.606678441794914</v>
+      </c>
+      <c r="L3">
+        <v>57</v>
+      </c>
+      <c r="M3">
+        <v>142</v>
+      </c>
+      <c r="N3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>653</v>
+      </c>
+      <c r="F4">
+        <v>0.54556443028592261</v>
+      </c>
+      <c r="G4">
+        <v>22307</v>
+      </c>
+      <c r="H4">
+        <v>18.636915384974081</v>
+      </c>
+      <c r="I4">
+        <v>0.10529330725974061</v>
+      </c>
+      <c r="J4">
+        <v>72</v>
+      </c>
+      <c r="K4">
+        <v>3.6092470732544961</v>
+      </c>
+      <c r="L4">
+        <v>46</v>
+      </c>
+      <c r="M4">
+        <v>48</v>
+      </c>
+      <c r="N4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>565</v>
+      </c>
+      <c r="F5">
+        <v>0.4720427306455533</v>
+      </c>
+      <c r="G5">
+        <v>18314</v>
+      </c>
+      <c r="H5">
+        <v>15.300868263792321</v>
+      </c>
+      <c r="I5">
+        <v>9.6840938378432426E-2</v>
+      </c>
+      <c r="J5">
+        <v>72</v>
+      </c>
+      <c r="K5">
+        <v>3.6092470732544961</v>
+      </c>
+      <c r="L5">
+        <v>36</v>
+      </c>
+      <c r="M5">
+        <v>43</v>
+      </c>
+      <c r="N5">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>600</v>
+      </c>
+      <c r="F6">
+        <v>0.50128431572979104</v>
+      </c>
+      <c r="G6">
+        <v>15600</v>
+      </c>
+      <c r="H6">
+        <v>13.03339220897457</v>
+      </c>
+      <c r="I6">
+        <v>8.1971020182229987E-2</v>
+      </c>
+      <c r="J6">
+        <v>80</v>
+      </c>
+      <c r="K6">
+        <v>4.0102745258383283</v>
+      </c>
+      <c r="L6">
+        <v>46</v>
+      </c>
+      <c r="M6">
+        <v>77</v>
+      </c>
+      <c r="N6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>524</v>
+      </c>
+      <c r="F7">
+        <v>0.43778830240401762</v>
+      </c>
+      <c r="G7">
+        <v>17994</v>
+      </c>
+      <c r="H7">
+        <v>15.033516628736431</v>
+      </c>
+      <c r="I7">
+        <v>8.7404166446142059E-2</v>
+      </c>
+      <c r="J7">
+        <v>80</v>
+      </c>
+      <c r="K7">
+        <v>4.0102745258383283</v>
+      </c>
+      <c r="L7">
+        <v>57</v>
+      </c>
+      <c r="M7">
+        <v>80</v>
+      </c>
+      <c r="N7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8">
         <v>9</v>
       </c>
-      <c r="E3">
+      <c r="E8">
+        <v>640</v>
+      </c>
+      <c r="F8">
+        <v>0.53470327011177721</v>
+      </c>
+      <c r="G8">
+        <v>45817</v>
+      </c>
+      <c r="H8">
+        <v>38.278905822986403</v>
+      </c>
+      <c r="I8">
+        <v>0.12759635274328801</v>
+      </c>
+      <c r="J8">
+        <v>68</v>
+      </c>
+      <c r="K8">
+        <v>3.4087333469625789</v>
+      </c>
+      <c r="L8">
+        <v>60</v>
+      </c>
+      <c r="M8">
+        <v>118</v>
+      </c>
+      <c r="N8">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9">
         <v>8</v>
       </c>
-      <c r="F3">
+      <c r="E9">
+        <v>675</v>
+      </c>
+      <c r="F9">
+        <v>0.563944855196015</v>
+      </c>
+      <c r="G9">
+        <v>42556</v>
+      </c>
+      <c r="H9">
+        <v>35.554425566994979</v>
+      </c>
+      <c r="I9">
+        <v>0.1221801565876116</v>
+      </c>
+      <c r="J9">
+        <v>68</v>
+      </c>
+      <c r="K9">
+        <v>3.4087333469625789</v>
+      </c>
+      <c r="L9">
+        <v>58</v>
+      </c>
+      <c r="M9">
+        <v>99</v>
+      </c>
+      <c r="N9">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10">
         <v>8</v>
       </c>
-      <c r="G3">
-        <v>776</v>
-      </c>
-      <c r="H3">
-        <v>0.64832771501052977</v>
-      </c>
-      <c r="I3">
-        <v>52984</v>
-      </c>
-      <c r="J3">
-        <v>44.266746974378748</v>
-      </c>
-      <c r="K3">
-        <v>0.14142730662740821</v>
-      </c>
-      <c r="L3">
+      <c r="E10">
+        <v>564</v>
+      </c>
+      <c r="F10">
+        <v>0.47120725678600361</v>
+      </c>
+      <c r="G10">
+        <v>36192</v>
+      </c>
+      <c r="H10">
+        <v>30.237469924820999</v>
+      </c>
+      <c r="I10">
+        <v>0.119989960019131</v>
+      </c>
+      <c r="J10">
+        <v>59</v>
+      </c>
+      <c r="K10">
+        <v>2.9575774628057672</v>
+      </c>
+      <c r="L10">
+        <v>50</v>
+      </c>
+      <c r="M10">
+        <v>73</v>
+      </c>
+      <c r="N10">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>586</v>
+      </c>
+      <c r="F11">
+        <v>0.48958768169609601</v>
+      </c>
+      <c r="G11">
+        <v>46760</v>
+      </c>
+      <c r="H11">
+        <v>39.066757672541719</v>
+      </c>
+      <c r="I11">
+        <v>0.1183841141592173</v>
+      </c>
+      <c r="J11">
+        <v>59</v>
+      </c>
+      <c r="K11">
+        <v>2.9575774628057672</v>
+      </c>
+      <c r="L11">
+        <v>56</v>
+      </c>
+      <c r="M11">
+        <v>88</v>
+      </c>
+      <c r="N11">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>486</v>
+      </c>
+      <c r="F12">
+        <v>0.40604029574113082</v>
+      </c>
+      <c r="G12">
+        <v>24133</v>
+      </c>
+      <c r="H12">
+        <v>20.16249065251175</v>
+      </c>
+      <c r="I12">
+        <v>6.7887173914180962E-2</v>
+      </c>
+      <c r="J12">
+        <v>61</v>
+      </c>
+      <c r="K12">
+        <v>3.0578343259517249</v>
+      </c>
+      <c r="L12">
+        <v>120</v>
+      </c>
+      <c r="M12">
+        <v>135</v>
+      </c>
+      <c r="N12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>504</v>
+      </c>
+      <c r="F13">
+        <v>0.42107882521302448</v>
+      </c>
+      <c r="G13">
+        <v>19924</v>
+      </c>
+      <c r="H13">
+        <v>16.645981177667259</v>
+      </c>
+      <c r="I13">
+        <v>6.6318650110228139E-2</v>
+      </c>
+      <c r="J13">
+        <v>61</v>
+      </c>
+      <c r="K13">
+        <v>3.0578343259517249</v>
+      </c>
+      <c r="L13">
+        <v>100</v>
+      </c>
+      <c r="M13">
+        <v>116</v>
+      </c>
+      <c r="N13">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>632</v>
+      </c>
+      <c r="F14">
+        <v>0.52801947923537995</v>
+      </c>
+      <c r="G14">
+        <v>43316</v>
+      </c>
+      <c r="H14">
+        <v>36.189385700252721</v>
+      </c>
+      <c r="I14">
+        <v>5.8940367589988142E-2</v>
+      </c>
+      <c r="J14">
+        <v>113</v>
+      </c>
+      <c r="K14">
+        <v>5.6645127677466389</v>
+      </c>
+      <c r="L14">
+        <v>201</v>
+      </c>
+      <c r="M14">
+        <v>404</v>
+      </c>
+      <c r="N14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15">
+        <v>9</v>
+      </c>
+      <c r="E15">
+        <v>579</v>
+      </c>
+      <c r="F15">
+        <v>0.48373936467924838</v>
+      </c>
+      <c r="G15">
+        <v>43978</v>
+      </c>
+      <c r="H15">
+        <v>36.74246939527459</v>
+      </c>
+      <c r="I15">
+        <v>5.8044975347985132E-2</v>
+      </c>
+      <c r="J15">
+        <v>113</v>
+      </c>
+      <c r="K15">
+        <v>5.6645127677466389</v>
+      </c>
+      <c r="L15">
+        <v>245</v>
+      </c>
+      <c r="M15">
+        <v>365</v>
+      </c>
+      <c r="N15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <v>376</v>
+      </c>
+      <c r="F16">
+        <v>0.31413817119066911</v>
+      </c>
+      <c r="G16">
+        <v>29299</v>
+      </c>
+      <c r="H16">
+        <v>24.47854861094525</v>
+      </c>
+      <c r="I16">
+        <v>7.9995256898513889E-2</v>
+      </c>
+      <c r="J16">
+        <v>108</v>
+      </c>
+      <c r="K16">
+        <v>5.4138706098817444</v>
+      </c>
+      <c r="L16">
+        <v>209</v>
+      </c>
+      <c r="M16">
+        <v>93</v>
+      </c>
+      <c r="N16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <v>441</v>
+      </c>
+      <c r="F17">
+        <v>0.36844397206139651</v>
+      </c>
+      <c r="G17">
+        <v>28644</v>
+      </c>
+      <c r="H17">
+        <v>23.93131323294023</v>
+      </c>
+      <c r="I17">
+        <v>8.7340559244307392E-2</v>
+      </c>
+      <c r="J17">
+        <v>108</v>
+      </c>
+      <c r="K17">
+        <v>5.4138706098817444</v>
+      </c>
+      <c r="L17">
+        <v>173</v>
+      </c>
+      <c r="M17">
+        <v>98</v>
+      </c>
+      <c r="N17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18">
+        <v>9</v>
+      </c>
+      <c r="E18">
+        <v>541</v>
+      </c>
+      <c r="F18">
+        <v>0.45199135801636159</v>
+      </c>
+      <c r="G18">
+        <v>47232</v>
+      </c>
+      <c r="H18">
+        <v>39.461101334249157</v>
+      </c>
+      <c r="I18">
+        <v>7.8764673321854606E-2</v>
+      </c>
+      <c r="J18">
+        <v>120</v>
+      </c>
+      <c r="K18">
+        <v>6.0154117887574916</v>
+      </c>
+      <c r="L18">
+        <v>307</v>
+      </c>
+      <c r="M18">
+        <v>187</v>
+      </c>
+      <c r="N18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19">
+        <v>8</v>
+      </c>
+      <c r="E19">
+        <v>539</v>
+      </c>
+      <c r="F19">
+        <v>0.45032041029726227</v>
+      </c>
+      <c r="G19">
+        <v>40979</v>
+      </c>
+      <c r="H19">
+        <v>34.236883290485181</v>
+      </c>
+      <c r="I19">
+        <v>7.7459011969423494E-2</v>
+      </c>
+      <c r="J19">
+        <v>120</v>
+      </c>
+      <c r="K19">
+        <v>6.0154117887574916</v>
+      </c>
+      <c r="L19">
+        <v>212</v>
+      </c>
+      <c r="M19">
+        <v>219</v>
+      </c>
+      <c r="N19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20">
+        <v>9</v>
+      </c>
+      <c r="E20">
+        <v>251</v>
+      </c>
+      <c r="F20">
+        <v>0.41940787749392522</v>
+      </c>
+      <c r="G20">
+        <v>21942</v>
+      </c>
+      <c r="H20">
+        <v>36.66393485247692</v>
+      </c>
+      <c r="I20">
+        <v>8.8346830969823903E-2</v>
+      </c>
+      <c r="J20">
+        <v>15</v>
+      </c>
+      <c r="K20">
+        <v>1.5038529471893729</v>
+      </c>
+      <c r="L20">
+        <v>233</v>
+      </c>
+      <c r="M20">
+        <v>136</v>
+      </c>
+      <c r="N20">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" t="s">
         <v>52</v>
       </c>
-      <c r="M3">
-        <v>2.606678441794914</v>
-      </c>
-      <c r="N3">
-        <v>57</v>
-      </c>
-      <c r="O3">
-        <v>142</v>
-      </c>
-      <c r="P3">
-        <v>114</v>
-      </c>
-      <c r="Q3">
-        <v>748</v>
-      </c>
-      <c r="R3">
-        <v>797</v>
+      <c r="D21">
+        <v>8</v>
+      </c>
+      <c r="E21">
+        <v>267</v>
+      </c>
+      <c r="F21">
+        <v>0.44614304099951407</v>
+      </c>
+      <c r="G21">
+        <v>19806</v>
+      </c>
+      <c r="H21">
+        <v>33.094790524480807</v>
+      </c>
+      <c r="I21">
+        <v>9.3224762040791012E-2</v>
+      </c>
+      <c r="J21">
+        <v>15</v>
+      </c>
+      <c r="K21">
+        <v>1.5038529471893729</v>
+      </c>
+      <c r="L21">
+        <v>182</v>
+      </c>
+      <c r="M21">
+        <v>106</v>
+      </c>
+      <c r="N21">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0"/>
 </worksheet>
 </file>